--- a/Documents/Data Import.xlsx
+++ b/Documents/Data Import.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Designations" sheetId="1" r:id="rId1"/>
     <sheet name="Ports" sheetId="2" r:id="rId2"/>
     <sheet name="Terminals" sheetId="3" r:id="rId3"/>
-    <sheet name="Employees" sheetId="4" r:id="rId4"/>
-    <sheet name="Shifts" sheetId="5" r:id="rId5"/>
+    <sheet name="Shifts" sheetId="5" r:id="rId4"/>
+    <sheet name="Employees" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -72,9 +72,6 @@
     <t>date_of_joining</t>
   </si>
   <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
     <t>start_time</t>
   </si>
   <si>
@@ -84,24 +81,6 @@
     <t>duration_hours</t>
   </si>
   <si>
-    <t>Test Port 1</t>
-  </si>
-  <si>
-    <t>Test Terminal 1</t>
-  </si>
-  <si>
-    <t>Testing Shift 1</t>
-  </si>
-  <si>
-    <t>JNPT_10000135</t>
-  </si>
-  <si>
-    <t>Test Employee</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>Super Admin</t>
   </si>
   <si>
@@ -112,6 +91,60 @@
   </si>
   <si>
     <t>Operator</t>
+  </si>
+  <si>
+    <t>Instructions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill data in sheets in following sequence: </t>
+  </si>
+  <si>
+    <t>1. Ports</t>
+  </si>
+  <si>
+    <t>2. Terminals</t>
+  </si>
+  <si>
+    <t>3. Shifts</t>
+  </si>
+  <si>
+    <t>4. Employees</t>
+  </si>
+  <si>
+    <t>Ports:</t>
+  </si>
+  <si>
+    <t>Enter the name of port and location (e.g. Name: JNPA, Location: Mumbai</t>
+  </si>
+  <si>
+    <t>Terminals:</t>
+  </si>
+  <si>
+    <t>Select Port from list (Do not type manually)</t>
+  </si>
+  <si>
+    <t>Enter name, latitude, longitude and geo fencing area</t>
+  </si>
+  <si>
+    <t>Shifts:</t>
+  </si>
+  <si>
+    <t>Enter name, start time, end time and duration hours</t>
+  </si>
+  <si>
+    <t>Employees:</t>
+  </si>
+  <si>
+    <t>Enter name, employee code, mobile number, date of birth, date of joining</t>
+  </si>
+  <si>
+    <t>Select Gender from list</t>
+  </si>
+  <si>
+    <t>Select Designation from list</t>
+  </si>
+  <si>
+    <t>Do not change of delete headers (firsst row of every sheet)</t>
   </si>
 </sst>
 </file>
@@ -119,11 +152,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="169" formatCode="[$-14009]yyyy/mm/dd;@"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
-    <numFmt numFmtId="173" formatCode="[$-14009]hh:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="[$-14009]hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,16 +164,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -163,17 +218,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,39 +567,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="DOcoHDSfZ8l6/wB/arkszjyThrs6osSUl4ROOHN3kmiMXkPLQqd6tYr+9Z0f6Ek08CN4DHbh7DD+c1i4kawCsQ==" saltValue="/p5PNuPVvXjy3FlUsET4qw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -494,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,24 +742,21 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
+  <sheetProtection deleteColumns="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,23 +782,6 @@
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3">
-        <v>21.829996000000001</v>
-      </c>
-      <c r="D2" s="3">
-        <v>75.630016999999995</v>
-      </c>
-      <c r="E2" s="4">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +804,60 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Ports!$A$2:$A$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,35 +903,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2">
-        <v>9999999999</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="2">
-        <v>29016</v>
-      </c>
-      <c r="J2" s="2">
-        <v>44951</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
@@ -685,82 +915,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Designations!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>H1:H1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>Ports!$A$2:$A$30</xm:f>
           </x14:formula1>
           <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="E2" s="4">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Ports!$A$2:$A$30</xm:f>
+            <xm:f>Designations!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A1048576</xm:sqref>
+          <xm:sqref>H1:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
